--- a/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43462</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43098</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42734</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>794500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>828900</v>
+      </c>
+      <c r="F8" s="3">
         <v>878900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>825800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>779400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>741000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>801600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>709100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>729900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>678500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>721800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>632800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>663200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>601500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>457300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>462100</v>
+      </c>
+      <c r="F9" s="3">
         <v>494300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>474400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>461200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>424900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>462900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>395500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>411400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>375700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>416000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>367300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>387600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>334500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>428400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>366800</v>
+      </c>
+      <c r="F10" s="3">
         <v>384600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>351400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>318200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>316100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>338700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>313600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>318500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>302800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>305800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>265500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>275600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>267000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>318800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F12" s="3">
         <v>65200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>62100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>59400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>60900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>59600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>59500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>58900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>55900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>51700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>55100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>53300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>49900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>81800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>23700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>30800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>17400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>57000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>739600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>718900</v>
+      </c>
+      <c r="F17" s="3">
         <v>768100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>771900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>669600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>629300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>671400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>617600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>620800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>557100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>617600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>544300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>573100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>584100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>605600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F18" s="3">
         <v>110800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>53900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>109800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>111700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>130200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>91500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>109100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>121400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>104200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>88500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>90100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>141600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>26900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>12900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>142600</v>
+      </c>
+      <c r="F21" s="3">
         <v>152100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>80700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>133700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>156100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>162300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>111000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>114600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>143700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>125800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>108900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>111500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>44500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>112700</v>
+      </c>
+      <c r="F23" s="3">
         <v>110400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>60000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>113000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>137400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>142000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>92000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>95600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>122500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>104700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>88700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>90400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>142900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F24" s="3">
         <v>42500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>24100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>24600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>31200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>32300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>17900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>26100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>20900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F26" s="3">
         <v>67900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>35900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>88400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>106200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>109700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>74100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>79400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>94900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>78600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>69900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>69500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F27" s="3">
         <v>68200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>35800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>88600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>105500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>109300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>74200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>79400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>94800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>78600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>69700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>69600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-6400</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>7100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-6200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-207100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-13300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>6500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-26900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-12900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F33" s="3">
         <v>70700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>29400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>88600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>103200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>116400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>72600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>73200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-112300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>78600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>69700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>56300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>13900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F35" s="3">
         <v>70700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>29400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>88600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>103200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>116400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>72600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>73200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-112300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>78600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>69700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>56300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>13900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43462</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43098</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42734</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>667800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>721900</v>
+      </c>
+      <c r="F41" s="3">
         <v>531400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>520700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>546300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>616000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>504800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>536000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>739900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>822600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>716200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>658200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>705500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>814700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>811400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2025,27 +2204,27 @@
       <c r="F42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3">
         <v>57500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>39400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2053,318 +2232,366 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>95300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1224300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1308300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1277500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1232900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1151500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1203800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1177100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1157000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1072300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1151800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>921300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>766900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>808000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>769600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>597400</v>
+      </c>
+      <c r="F44" s="3">
         <v>551500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>529300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>478000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>469600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>438100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>469200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>433800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>431400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>417700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>460200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>453700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>661600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>442400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>215400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>137000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>496700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2500900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2647000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2395400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2341200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2261200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2188400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2193000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2345400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2351600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2296800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2058600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2141500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2421300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2615400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>118100</v>
+      </c>
+      <c r="F47" s="3">
         <v>132500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>158800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>163100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>106100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>178200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>86800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>99000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>93300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>303300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>173100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>164400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>176700</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>465700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>444400</v>
+      </c>
+      <c r="F48" s="3">
         <v>311500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>307400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>268400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>270100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>274600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>265900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>247000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>250400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>510600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>249300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>252600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>375100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>258600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>896300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>903300</v>
+      </c>
+      <c r="F49" s="3">
         <v>912900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>840000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>400100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>408000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>394700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>319300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>318200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>289000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>294200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>295000</v>
       </c>
       <c r="N49" s="3">
         <v>294200</v>
       </c>
       <c r="O49" s="3">
+        <v>295000</v>
+      </c>
+      <c r="P49" s="3">
+        <v>294200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>391100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>362500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>337900</v>
+      </c>
+      <c r="F52" s="3">
         <v>349400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>319900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>297400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>285700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>216800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>306800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>297900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>315500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>385800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>283000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>266100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>320600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>835500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4343900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4450700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4101700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3967300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3390200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3370800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3252700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3171800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3307500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3299800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3294400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3059000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3118800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3684800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3814800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,189 +2878,215 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>198400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>215300</v>
+      </c>
+      <c r="F57" s="3">
         <v>248500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>226100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>208700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>198100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>190300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>189200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>164900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>152000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>162300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>153300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>144000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>174800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>159200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>523500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>542000</v>
+      </c>
+      <c r="F58" s="3">
         <v>410000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>401000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>18200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>230000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>350000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>114100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>269300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>332600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1225500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1182800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1110100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1134900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1149400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1171700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1135300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1124400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1132800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1005800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>992100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1016700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1075200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1949700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2046400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1884000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1809900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1318800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1333000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1339700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1379100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1530200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1616400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1645100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1273200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1405400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1524100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1613400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2819,72 +3104,84 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>249900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>277200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>274600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>514300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>547000</v>
+      </c>
+      <c r="F62" s="3">
         <v>440100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>331300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>355800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>324300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>291200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>295700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>292400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>127400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>141600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>143600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>146800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2483100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2603400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2333400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2223700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1654900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1693800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1668300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1674600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1855300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1913200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1776800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1669000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1830300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1960000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2074300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>993700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>983200</v>
+      </c>
+      <c r="F72" s="3">
         <v>934000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>890700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>902300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>855500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>780400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>704600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>664200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>620200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>778600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>693600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>638600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1049900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1860800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1847300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1768300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1743600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1735300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1677000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1584400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1497200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1452200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1386600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1517600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1390000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1288500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1724800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1740500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43462</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43098</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42734</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F81" s="3">
         <v>70700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>29400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>88600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>103200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>116400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>72600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>73200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-112300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>78600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>69700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>56300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>13900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F83" s="3">
         <v>36900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>18900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>17700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>17500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>18700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>22300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>112600</v>
+      </c>
+      <c r="F89" s="3">
         <v>117800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>126500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>140900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>108200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>102200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>65500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>179000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>129700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>155000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>32200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>82200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-16900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-34400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-489100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-71600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-25800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-51200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-25700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-31800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-48800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>103400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-14800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>350900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-39700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-17200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-65400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-267400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-111400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-42800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-170700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-115400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-89600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-96900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>6200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>4800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>16100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>198100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-69800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>112300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-28700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-197100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-82700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>106400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>56200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-47000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-107700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43833</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43462</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>694300</v>
+      </c>
+      <c r="E8" s="3">
         <v>794500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>828900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>878900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>825800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>779400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>741000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>801600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>709100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>729900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>678500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>721800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>632800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>663200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>601500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>395800</v>
+      </c>
+      <c r="E9" s="3">
         <v>457300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>462100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>494300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>474400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>461200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>424900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>462900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>395500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>411400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>375700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>416000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>367300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>387600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>334500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>428400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E10" s="3">
         <v>337200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>366800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>384600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>351400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>318200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>316100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>338700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>318500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>305800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>275600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>267000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>318800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E12" s="3">
         <v>71000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>62100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>59400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>59600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>59500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>53300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1024,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E14" s="3">
         <v>36000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>81800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>17400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>57000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>634400</v>
+      </c>
+      <c r="E17" s="3">
         <v>739600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>718900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>768100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>771900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>669600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>629300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>671400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>617600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>620800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>557100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>617600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>544300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>573100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>584100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>605600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E18" s="3">
         <v>54900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>110000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>53900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>109800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>111700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>130200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>91500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>121400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>141600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>26900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3200</v>
       </c>
       <c r="N20" s="3">
         <v>3200</v>
       </c>
       <c r="O20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E21" s="3">
         <v>81500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>152100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>80700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>162300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>143700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>111500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2700</v>
       </c>
       <c r="O22" s="3">
         <v>2700</v>
       </c>
       <c r="P22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E23" s="3">
         <v>52800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>112700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>110400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>113000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>137400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>122500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>104700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>90400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E26" s="3">
         <v>43100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>88900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>88400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>106200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>109700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E27" s="3">
         <v>43200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>88200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>105500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>109300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>79400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>94800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1706,47 +1766,50 @@
       <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
         <v>2500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6400</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-207100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>6500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-26900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3200</v>
       </c>
       <c r="N32" s="3">
         <v>-3200</v>
       </c>
       <c r="O32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E33" s="3">
         <v>43200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>70700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>88600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>103200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>116400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-112300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E35" s="3">
         <v>43200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>70700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>88600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>103200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>116400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-112300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43833</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43462</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>769200</v>
+      </c>
+      <c r="E41" s="3">
         <v>667800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>721900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>531400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>520700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>546300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>616000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>504800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>536000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>739900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>822600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>716200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>658200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>705500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>814700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>811400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2210,24 +2299,24 @@
       <c r="H42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="3">
         <v>57500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2238,360 +2327,384 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>95300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1251700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1224300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1324000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1308300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1277500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1232900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1151500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1203800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1177100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1157000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1072300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1151800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>921300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>766900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>808000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>769600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>600400</v>
+      </c>
+      <c r="E44" s="3">
         <v>604000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>597400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>551500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>529300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>478000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>469600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>438100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>469200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>433800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>431400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>460200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>453700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>661600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>442400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>215400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>496700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2631700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2647000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2395400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2341200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2261200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2188400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2193000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2345400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2351600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2296800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2058600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2141500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2421300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2615400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E47" s="3">
         <v>118500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>118100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>132500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>158800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>163100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>106100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>178200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>303300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>173100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>164400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>176700</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E48" s="3">
         <v>465700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>444400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>311500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>307400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>268400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>270100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>274600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>265900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>247000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>250400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>510600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>249300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>375100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>258600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>873100</v>
+      </c>
+      <c r="E49" s="3">
         <v>896300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>903300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>912900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>840000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>400100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>408000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>394700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>319300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>318200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>289000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>294200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>295000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>294200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>391100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E52" s="3">
         <v>362500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>337900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>349400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>319900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>297400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>285700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>216800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>306800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>297900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>315500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>385800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>283000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>266100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>320600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>835500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4454400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4343900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4450700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4101700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3967300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3390200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3370800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3252700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3171800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3307500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3299800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3294400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3059000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3118800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3684800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3814800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,217 +3009,230 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E57" s="3">
         <v>198400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>215300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>248500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>226100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>208700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>198100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>190300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>164900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>162300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>153300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>144000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>174800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>159200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>583200</v>
+      </c>
+      <c r="E58" s="3">
         <v>523500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>542000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>410000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>401000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>18200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>230000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>340000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>350000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>114100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>269300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>332600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1243700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1227800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1289100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1225500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1182800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1110100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1134900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1149400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1171700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1135300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1124400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1132800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1005800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>992100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1016700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1075200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1991400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1949700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2046400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1884000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1809900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1318800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1333000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1339700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1379100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1530200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1616400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1645100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1273200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1405400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1524100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1613400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E61" s="3">
         <v>9200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3110,78 +3252,84 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>249900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>277200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>274600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E62" s="3">
         <v>514300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>547000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>440100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>331300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>355800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>324300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>291200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>295700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>292400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>127400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>141600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>143600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>146800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2520900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2483100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2603400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2333400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2223700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1654900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1693800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1668300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1674600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1855300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1913200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1776800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1669000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1830300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1960000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2074300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="E72" s="3">
         <v>993700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>983200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>934000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>890700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>902300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>855500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>780400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>704600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>664200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>620200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>778600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>693600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>638600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1049900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1933500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1860800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1847300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1768300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1743600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1735300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1677000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1584400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1497200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1452200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1386600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1517600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1390000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1288500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1724800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1740500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43833</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43462</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E81" s="3">
         <v>43200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>70700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>88600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>103200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>116400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-112300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E83" s="3">
         <v>24400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E89" s="3">
         <v>21900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>112600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>117800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>126500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>108200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>179000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>129700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>155000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>82200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-489100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>103400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>350900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-65400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-267400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-111400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-170700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-115400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-96900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-5600</v>
       </c>
       <c r="O101" s="3">
         <v>-5600</v>
       </c>
       <c r="P101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>198100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-69800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>112300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-197100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-82700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>106400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>850500</v>
+      </c>
+      <c r="E8" s="3">
         <v>694300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>794500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>828900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>878900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>825800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>779400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>741000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>801600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>709100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>729900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>678500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>721800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>632800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>663200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>601500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E9" s="3">
         <v>395800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>457300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>462100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>494300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>474400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>461200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>424900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>462900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>395500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>411400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>375700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>416000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>367300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>387600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>334500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>428400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E10" s="3">
         <v>298500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>337200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>366800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>384600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>351400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>318200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>316100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>338700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>318500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>302800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>305800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>275600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>267000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>318800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +933,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E12" s="3">
         <v>65300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>62100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>59400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>59600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>59500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>55900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>53300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,61 +1043,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E14" s="3">
         <v>28300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>36000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>81800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>30800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>17400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>57000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>752100</v>
+      </c>
+      <c r="E17" s="3">
         <v>634400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>739600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>718900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>768100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>771900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>669600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>629300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>671400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>617600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>620800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>557100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>617600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>544300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>573100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>584100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>605600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E18" s="3">
         <v>59900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>53900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>109800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>111700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>130200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>91500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>109100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>121400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>141600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,273 +1310,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E20" s="3">
         <v>27800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3200</v>
       </c>
       <c r="O20" s="3">
         <v>3200</v>
       </c>
       <c r="P20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E21" s="3">
         <v>111700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>80700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>133700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>156100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>111000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>143700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>111500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>44500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2700</v>
       </c>
       <c r="P22" s="3">
         <v>2700</v>
       </c>
       <c r="Q22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E23" s="3">
         <v>84800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>112700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>110400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>113000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>137400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>122500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>104700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E24" s="3">
         <v>23900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E26" s="3">
         <v>60900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>88900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>88400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>106200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E27" s="3">
         <v>61200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>88200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>68200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>105500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>94800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1755,13 +1812,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>40</v>
+      <c r="D29" s="3">
+        <v>-5400</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>40</v>
@@ -1769,47 +1829,50 @@
       <c r="F29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="3">
         <v>2500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6400</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-207100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-13300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-27800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3200</v>
       </c>
       <c r="O32" s="3">
         <v>-3200</v>
       </c>
       <c r="P32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E33" s="3">
         <v>61200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>88200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>88600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>103200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>73200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-112300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E35" s="3">
         <v>61200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>88200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>70700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>88600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>103200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>73200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-112300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43833</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2226,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E41" s="3">
         <v>769200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>667800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>721900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>531400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>520700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>546300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>616000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>504800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>536000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>739900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>822600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>716200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>658200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>705500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>814700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>811400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2302,24 +2391,24 @@
       <c r="I42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="3">
         <v>57500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2330,381 +2419,405 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>95300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1310700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1251700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1224300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1324000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1308300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1277500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1232900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1151500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1203800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1177100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1157000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1072300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1151800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>921300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>766900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>808000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>769600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>516300</v>
+      </c>
+      <c r="E44" s="3">
         <v>600400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>604000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>597400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>551500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>529300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>478000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>469600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>438100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>469200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>433800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>431400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>460200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>453700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>661600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>442400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>215400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>137000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>496700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2603300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2631700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2647000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2395400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2341200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2261200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2188400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2193000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2345400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2351600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2296800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2058600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2141500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2421300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2615400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E47" s="3">
         <v>112300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>118500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>118100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>132500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>163100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>106100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>178200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>86800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>303300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>173100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>164400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>176700</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E48" s="3">
         <v>469900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>465700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>444400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>311500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>307400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>268400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>270100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>274600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>265900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>247000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>250400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>510600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>249300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>252600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>375100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>258600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>895200</v>
+      </c>
+      <c r="E49" s="3">
         <v>873100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>896300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>903300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>912900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>840000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>400100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>408000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>394700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>319300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>318200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>289000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>294200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>295000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>294200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>391100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E52" s="3">
         <v>367400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>362500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>337900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>349400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>319900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>297400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>285700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>216800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>306800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>297900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>315500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>385800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>283000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>266100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>320600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>835500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4462200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4454400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4343900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4450700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4101700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3967300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3390200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3370800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3252700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3171800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3307500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3299800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3294400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3059000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3118800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3684800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3814800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,232 +3139,245 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E57" s="3">
         <v>164500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>215300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>248500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>226100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>208700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>198100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>190300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>164900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>153300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>144000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>174800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>159200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E58" s="3">
         <v>583200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>523500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>542000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>410000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>401000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>18200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>230000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>340000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>350000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>114100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>269300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>332600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1301200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1243700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1227800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1289100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1225500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1182800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1110100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1134900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1149400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1171700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1135300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1124400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1132800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1005800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>992100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1016700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1075200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1991400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1949700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2046400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1884000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1809900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1318800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1333000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1339700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1379100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1530200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1616400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1645100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1273200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1405400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1524100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1613400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="3">
         <v>8900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3255,81 +3397,87 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>249900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>277200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>274600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E62" s="3">
         <v>511000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>514300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>547000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>440100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>331300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>355800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>324300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>291200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>295700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>292400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>127400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>141600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>143600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>146800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2386700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2520900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2483100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2603400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2333400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2223700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1654900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1693800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1668300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1674600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1855300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1913200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1776800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1830300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1960000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2074300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1054900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>993700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>983200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>934000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>890700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>902300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>855500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>780400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>704600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>664200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>620200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>778600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>693600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>638600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1049900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2075500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1933500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1860800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1847300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1768300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1743600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1735300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1677000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1584400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1497200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1452200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1386600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1517600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1390000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1288500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1724800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1740500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43833</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E81" s="3">
         <v>61200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>88200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>70700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>88600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>103200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>73200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-112300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
         <v>24000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E89" s="3">
         <v>83000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>112600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>117800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>126500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>179000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>129700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>155000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>82200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-489100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-204400</v>
+      </c>
+      <c r="E100" s="3">
         <v>67800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-59900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>103400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>350900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-267400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-170700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-115400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-96900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-5600</v>
       </c>
       <c r="P101" s="3">
         <v>-5600</v>
       </c>
       <c r="Q101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>101500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-53200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>198100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-69800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>112300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-197100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-82700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-107700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,267 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43924</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43833</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43098</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>778800</v>
+      </c>
+      <c r="E8" s="3">
         <v>850500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>694300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>794500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>828900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>878900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>825800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>779400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>741000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>801600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>709100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>729900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>678500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>721800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>632800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>663200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>601500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>419800</v>
+      </c>
+      <c r="E9" s="3">
         <v>475800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>395800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>457300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>462100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>494300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>474400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>461200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>424900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>462900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>395500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>411400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>375700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>416000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>367300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>387600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>334500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>428400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E10" s="3">
         <v>374700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>298500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>337200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>366800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>384600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>351400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>318200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>316100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>338700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>313600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>318500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>302800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>305800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>265500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>275600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>267000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>318800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,64 +946,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E12" s="3">
         <v>77200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>71000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>62100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>59400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>59600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>59500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>58900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>53300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>49900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,64 +1062,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E14" s="3">
         <v>24600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>36000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>81800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>17400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>57000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>661600</v>
+      </c>
+      <c r="E17" s="3">
         <v>752100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>634400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>739600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>718900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>768100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>771900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>669600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>629300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>671400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>617600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>620800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>557100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>617600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>544300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>573100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>584100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>605600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E18" s="3">
         <v>98400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>109800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>130200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>91500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>109100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>121400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>104200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>141600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1311,288 +1343,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>11700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>27800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3200</v>
       </c>
       <c r="P20" s="3">
         <v>3200</v>
       </c>
       <c r="Q20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E21" s="3">
         <v>135400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>111700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>80700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>111000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>143700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>111500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>44500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2700</v>
       </c>
       <c r="Q22" s="3">
         <v>2700</v>
       </c>
       <c r="R22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E23" s="3">
         <v>108000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>84800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>112700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>110400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>60000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>113000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>122500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>104700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>88700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E24" s="3">
         <v>26100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1647,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E26" s="3">
         <v>81900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>88900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>88400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>69500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E27" s="3">
         <v>82000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>88200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>68200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>105500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>94800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>78600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>69600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1815,16 +1872,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>40</v>
@@ -1832,47 +1892,50 @@
       <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-207100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-13300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-27800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3200</v>
       </c>
       <c r="P32" s="3">
         <v>-3200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E33" s="3">
         <v>76600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>61200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>88200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>70700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>73200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-112300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>78600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2151,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E35" s="3">
         <v>76600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>61200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>88200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>70700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>73200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-112300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>78600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43924</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43833</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43098</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2290,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2312,106 +2397,110 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>773300</v>
+      </c>
+      <c r="E41" s="3">
         <v>766100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>769200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>667800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>721900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>531400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>520700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>546300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>616000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>504800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>536000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>739900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>822600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>716200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>658200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>705500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>811400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>57500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14000</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2422,402 +2511,426 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>95300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1286000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1310700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1251700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1224300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1324000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1308300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1277500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1232900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1151500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1203800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1177100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1157000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1072300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1151800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>921300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>766900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>808000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>769600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>571700</v>
+      </c>
+      <c r="E44" s="3">
         <v>516300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>604000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>597400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>551500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>529300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>478000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>469600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>438100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>469200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>433800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>431400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>460200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>453700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>661600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>442400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>215400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>137000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>496700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2641300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2603300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2631700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2647000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2395400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2341200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2261200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2188400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2193000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2345400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2351600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2296800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2058600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2141500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2421300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2615400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E47" s="3">
         <v>154900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>112300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>118500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>118100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>132500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>158800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>163100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>106100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>178200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>303300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>173100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>164400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>176700</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E48" s="3">
         <v>465900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>469900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>465700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>444400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>311500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>307400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>268400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>270100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>274600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>265900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>247000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>250400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>510600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>249300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>252600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>375100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>258600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>892700</v>
+      </c>
+      <c r="E49" s="3">
         <v>895200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>873100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>896300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>903300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>912900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>840000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>408000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>394700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>319300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>318200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>289000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>294200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>295000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>294200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>391100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>400000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>416400</v>
+      </c>
+      <c r="E52" s="3">
         <v>342900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>367400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>362500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>337900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>349400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>319900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>297400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>285700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>216800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>306800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>297900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>315500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>385800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>283000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>266100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>320600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>835500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4526100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4462200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4454400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4343900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4450700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4101700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3967300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3390200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3370800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3252700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3171800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3307500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3299800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3294400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3059000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3118800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3684800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3814800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,247 +3269,260 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>206500</v>
+      </c>
+      <c r="E57" s="3">
         <v>194900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>164500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>198400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>215300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>248500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>226100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>208700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>198100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>190300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>189200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>164900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>152000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>153300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>144000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>174800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>159200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E58" s="3">
         <v>358400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>583200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>523500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>542000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>410000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>401000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>18200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>230000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>340000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>350000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>114100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>269300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>332600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1301200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1243700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1227800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1289100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1225500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1182800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1110100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1134900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1149400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1171700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1135300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1124400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1132800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1005800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>992100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1016700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1075200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1744900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1854500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1991400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1949700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2046400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1884000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1809900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1318800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1333000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1339700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1379100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1530200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1616400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1645100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1273200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1405400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1524100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1613400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="3">
         <v>8700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3400,84 +3542,90 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>249900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>277200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>274600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>286900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>524900</v>
+      </c>
+      <c r="E62" s="3">
         <v>514200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>511000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>514300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>547000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>440100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>331300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>355800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>324300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>291200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>295700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>292400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>127400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>141600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>143600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>146800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3588,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2287800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2386700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2520900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2483100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2603400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2333400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2223700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1654900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1693800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1668300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1674600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1855300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1913200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1776800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1669000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1830300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1960000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2074300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1225600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1133000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1054900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>993700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>983200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>934000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>890700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>902300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>855500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>780400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>704600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>664200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>620200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>778600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>693600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>638600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1049900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2238300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2075500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1933500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1860800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1847300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1768300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1743600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1735300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1677000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1584400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1497200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1452200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1386600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1517600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1390000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1288500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1724800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1740500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43924</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43833</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43098</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E81" s="3">
         <v>76600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>61200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>88200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>70700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>73200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-112300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>78600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>117500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E83" s="3">
         <v>25300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E89" s="3">
         <v>266600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>112600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>117800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>126500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>108200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>179000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>129700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>155000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-489100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-204400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>67800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>103400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>350900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-267400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-170700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-115400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-89600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q101" s="3">
         <v>-5600</v>
       </c>
       <c r="R101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>101500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>198100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-69800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-197100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-82700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-47000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-107700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7500</v>
       </c>
     </row>
